--- a/doc/db_flow.xlsx
+++ b/doc/db_flow.xlsx
@@ -4,29 +4,26 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="14130"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="14130" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="db概念図" sheetId="1" r:id="rId1"/>
     <sheet name="テーブルリスト" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="user" sheetId="3" r:id="rId3"/>
+    <sheet name="charactor" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="93">
   <si>
     <t>・xxx_data のテーブルはゲーム中で可変しない固定データ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>user</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>chractor</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -161,6 +158,408 @@
     <rPh sb="8" eb="10">
       <t>キホン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chra_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>charactor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>equip_leg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>equip_wepon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>equip_head</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>equip_ｂｏｄｙ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>equip_arm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>equip_waist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max_hp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>def_fire</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>def_water</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>def_thunder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>def_ice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>def_dragon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>atk_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>skill_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>skill_02</t>
+  </si>
+  <si>
+    <t>skill_03</t>
+  </si>
+  <si>
+    <t>skill_04</t>
+  </si>
+  <si>
+    <t>skill_05</t>
+  </si>
+  <si>
+    <t>skill_06</t>
+  </si>
+  <si>
+    <t>skill_07</t>
+  </si>
+  <si>
+    <t>skill_08</t>
+  </si>
+  <si>
+    <t>skill_09</t>
+  </si>
+  <si>
+    <t>skill_10</t>
+  </si>
+  <si>
+    <t>発動済みのスキルのidを設定</t>
+    <rPh sb="0" eb="2">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御力</t>
+    <rPh sb="0" eb="3">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火耐性</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>タイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水耐性</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>タイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雷耐性</t>
+    <rPh sb="0" eb="1">
+      <t>カミナリ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>タイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氷耐性</t>
+    <rPh sb="0" eb="1">
+      <t>コオリ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>タイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>龍耐性</t>
+    <rPh sb="0" eb="1">
+      <t>リュウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>タイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃タイプ（斬、叩）</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頭防具</t>
+    <rPh sb="0" eb="1">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ボウグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>胴防具</t>
+    <rPh sb="0" eb="3">
+      <t>ドウボウグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>腕防具</t>
+    <rPh sb="0" eb="1">
+      <t>ウデ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ボウグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>腰防具</t>
+    <rPh sb="0" eb="1">
+      <t>コシ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ボウグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脚防具</t>
+    <rPh sb="0" eb="3">
+      <t>アシボウグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stamina</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max_stamina</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大HP</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在HP</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大スタミナ</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在スタミナ</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chra_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラの名前</t>
+    <rPh sb="4" eb="6">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>atk_effect_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>atk_effect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加効果のタイプ</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加効果の数値</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーの設定したid</t>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーの設定したパスワード</t>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終更新日時</t>
+    <rPh sb="0" eb="2">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■charactor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニークid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニークid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chara_02</t>
+  </si>
+  <si>
+    <t>chara_03</t>
+  </si>
+  <si>
+    <t>使用キャラのユニークid</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chara_01</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -228,7 +627,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -239,6 +638,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1230,27 +1632,27 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>529716</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>51420</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>13692</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>166228</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>13692</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>146670</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="9" name="カギ線コネクタ 8"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="1"/>
-          <a:endCxn id="4" idx="3"/>
+          <a:endCxn id="25" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="4644516" y="1080120"/>
-          <a:ext cx="1008112" cy="648072"/>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4644516" y="1728192"/>
+          <a:ext cx="1008112" cy="647328"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1306,58 +1708,6 @@
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>529716</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>51420</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>166228</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>147414</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="カギ線コネクタ 10"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="1"/>
-          <a:endCxn id="4" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="4644516" y="1080120"/>
-          <a:ext cx="1008112" cy="1296144"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="arrow"/>
@@ -2477,6 +2827,258 @@
         <a:xfrm flipH="1">
           <a:off x="4608512" y="4176464"/>
           <a:ext cx="1044116" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>605172</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>102096</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>529716</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19794</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="角丸四角形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348372" y="2159496"/>
+          <a:ext cx="1296144" cy="432048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>equip_item</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>529716</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>146670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>166228</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>147414</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="1"/>
+          <a:endCxn id="25" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4644516" y="2375520"/>
+          <a:ext cx="1008112" cy="744"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>567444</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>567444</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>102096</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="0"/>
+          <a:endCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3996444" y="1296144"/>
+          <a:ext cx="0" cy="863352"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2792,8 +3394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2815,7 +3417,7 @@
   <dimension ref="B3:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2826,10 +3428,10 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -2837,79 +3439,79 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2921,12 +3523,342 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:D44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/db_flow.xlsx
+++ b/doc/db_flow.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="14130" activeTab="2"/>
+    <workbookView xWindow="362" yWindow="75" windowWidth="25528" windowHeight="14129" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="db概念図" sheetId="1" r:id="rId1"/>
     <sheet name="テーブルリスト" sheetId="2" r:id="rId2"/>
     <sheet name="user" sheetId="3" r:id="rId3"/>
     <sheet name="charactor" sheetId="5" r:id="rId4"/>
+    <sheet name="chara_data" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="94">
   <si>
     <t>・xxx_data のテーブルはゲーム中で可変しない固定データ</t>
     <phoneticPr fontId="1"/>
@@ -189,23 +190,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>equip_wepon</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>equip_head</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>equip_ｂｏｄｙ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>equip_arm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>equip_waist</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -560,14 +549,30 @@
   </si>
   <si>
     <t>chara_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>equip_ｂｏｄｙ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>equip_wepon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>equip_waist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■chara_data</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,6 +654,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3104,11 +3114,771 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>338575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>135154</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>263119</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>52853</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="角丸四角形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7500577" y="1925655"/>
+          <a:ext cx="1226726" cy="406017"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>body_data</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342565</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>139144</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>267109</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>56842</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="角丸四角形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7504567" y="1441326"/>
+          <a:ext cx="1226726" cy="406017"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>head_data</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>313043</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>147922</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>237587</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>65621</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="角丸四角形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7475045" y="2426741"/>
+          <a:ext cx="1226726" cy="406017"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>waist _data</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>340969</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>147124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>265513</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>64823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="角丸四角形 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7502971" y="2914261"/>
+          <a:ext cx="1226726" cy="406017"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>wear _data</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>335384</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>146325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>259928</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>64023</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="角丸四角形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7497386" y="3401780"/>
+          <a:ext cx="1226726" cy="406017"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>leg _data</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3182,6 +3952,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3216,6 +3987,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3391,16 +4163,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="12.85" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>0</v>
       </c>
@@ -3413,20 +4185,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="12.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="44.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1328125" customWidth="1"/>
+    <col min="3" max="3" width="44.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
@@ -3434,7 +4206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3442,7 +4214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
@@ -3450,7 +4222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -3458,7 +4230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -3466,7 +4238,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -3474,7 +4246,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
@@ -3482,7 +4254,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
@@ -3490,7 +4262,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
@@ -3498,7 +4270,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
@@ -3506,7 +4278,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
@@ -3522,74 +4294,74 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="12.85" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3599,263 +4371,324 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="12.85" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>42</v>
       </c>
-      <c r="D20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" t="s">
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>43</v>
       </c>
-      <c r="D21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" t="s">
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>44</v>
       </c>
-      <c r="D33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" t="s">
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
-      <c r="B35" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
-      <c r="B36" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
-      <c r="B37" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
-      <c r="B38" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
-      <c r="B39" t="s">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
-      <c r="B40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>84</v>
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/doc/db_flow.xlsx
+++ b/doc/db_flow.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="362" yWindow="75" windowWidth="25528" windowHeight="14129" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="25530" windowHeight="14130"/>
   </bookViews>
   <sheets>
     <sheet name="db概念図" sheetId="1" r:id="rId1"/>
@@ -571,8 +571,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3878,7 +3878,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3952,7 +3952,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3987,7 +3986,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4163,16 +4161,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2">
       <c r="B30" t="s">
         <v>0</v>
       </c>
@@ -4185,20 +4183,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="17.1328125" customWidth="1"/>
-    <col min="3" max="3" width="44.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="44.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
@@ -4206,7 +4204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -4214,7 +4212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
@@ -4222,7 +4220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -4230,7 +4228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3">
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -4238,7 +4236,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4246,7 +4244,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3">
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
@@ -4254,7 +4252,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3">
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
@@ -4262,7 +4260,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3">
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
@@ -4270,7 +4268,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3">
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
@@ -4278,7 +4276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
@@ -4294,21 +4292,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4">
       <c r="B1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
         <v>22</v>
       </c>
@@ -4316,7 +4314,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
         <v>23</v>
       </c>
@@ -4324,7 +4322,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
         <v>24</v>
       </c>
@@ -4332,7 +4330,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -4340,7 +4338,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4">
       <c r="B8" t="s">
         <v>89</v>
       </c>
@@ -4348,7 +4346,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4">
       <c r="B9" t="s">
         <v>86</v>
       </c>
@@ -4356,7 +4354,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4">
       <c r="B10" t="s">
         <v>87</v>
       </c>
@@ -4371,21 +4369,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4">
       <c r="B1" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
         <v>22</v>
       </c>
@@ -4393,7 +4391,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
         <v>26</v>
       </c>
@@ -4401,7 +4399,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4">
       <c r="B6" t="s">
         <v>73</v>
       </c>
@@ -4409,7 +4407,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4">
       <c r="B8" t="s">
         <v>31</v>
       </c>
@@ -4417,7 +4415,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4">
       <c r="B9" t="s">
         <v>32</v>
       </c>
@@ -4425,7 +4423,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4">
       <c r="B10" t="s">
         <v>67</v>
       </c>
@@ -4433,7 +4431,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4">
       <c r="B11" t="s">
         <v>66</v>
       </c>
@@ -4441,7 +4439,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4">
       <c r="B13" t="s">
         <v>91</v>
       </c>
@@ -4449,7 +4447,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4">
       <c r="B14" t="s">
         <v>29</v>
       </c>
@@ -4457,7 +4455,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4">
       <c r="B15" t="s">
         <v>90</v>
       </c>
@@ -4465,7 +4463,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4">
       <c r="B16" t="s">
         <v>30</v>
       </c>
@@ -4473,7 +4471,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4">
       <c r="B17" t="s">
         <v>92</v>
       </c>
@@ -4481,7 +4479,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4">
       <c r="B18" t="s">
         <v>28</v>
       </c>
@@ -4489,7 +4487,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4">
       <c r="B20" t="s">
         <v>39</v>
       </c>
@@ -4497,7 +4495,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4">
       <c r="B21" t="s">
         <v>40</v>
       </c>
@@ -4505,7 +4503,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4">
       <c r="B23" t="s">
         <v>75</v>
       </c>
@@ -4513,7 +4511,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4">
       <c r="B24" t="s">
         <v>76</v>
       </c>
@@ -4521,7 +4519,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4">
       <c r="B26" t="s">
         <v>33</v>
       </c>
@@ -4529,7 +4527,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4">
       <c r="B27" t="s">
         <v>34</v>
       </c>
@@ -4537,7 +4535,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" t="s">
         <v>35</v>
       </c>
@@ -4545,7 +4543,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4">
       <c r="B29" t="s">
         <v>36</v>
       </c>
@@ -4553,7 +4551,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4">
       <c r="B30" t="s">
         <v>37</v>
       </c>
@@ -4561,7 +4559,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4">
       <c r="B31" t="s">
         <v>38</v>
       </c>
@@ -4569,7 +4567,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4">
       <c r="B33" t="s">
         <v>41</v>
       </c>
@@ -4577,52 +4575,52 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4">
       <c r="B34" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4">
       <c r="B35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4">
       <c r="B36" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4">
       <c r="B37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4">
       <c r="B38" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4">
       <c r="B39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4">
       <c r="B40" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4">
       <c r="B41" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4">
       <c r="B42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4">
       <c r="B44" t="s">
         <v>25</v>
       </c>
@@ -4637,21 +4635,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4">
       <c r="B1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
         <v>26</v>
       </c>
@@ -4659,7 +4657,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
         <v>73</v>
       </c>
@@ -4667,7 +4665,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4">
       <c r="B7" t="s">
         <v>31</v>
       </c>
@@ -4675,7 +4673,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4">
       <c r="B8" t="s">
         <v>67</v>
       </c>
@@ -4683,7 +4681,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4">
       <c r="B10" t="s">
         <v>25</v>
       </c>

--- a/doc/db_flow.xlsx
+++ b/doc/db_flow.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="25530" windowHeight="14130"/>
+    <workbookView xWindow="362" yWindow="75" windowWidth="25528" windowHeight="14129" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="db概念図" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="user" sheetId="3" r:id="rId3"/>
     <sheet name="charactor" sheetId="5" r:id="rId4"/>
     <sheet name="chara_data" sheetId="6" r:id="rId5"/>
+    <sheet name="head_data" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="146">
   <si>
     <t>・xxx_data のテーブルはゲーム中で可変しない固定データ</t>
     <phoneticPr fontId="1"/>
@@ -566,13 +567,190 @@
   <si>
     <t>■chara_data</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■head_data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装備品のid</t>
+    <rPh sb="0" eb="3">
+      <t>ソウビヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装備品の名前</t>
+    <rPh sb="0" eb="3">
+      <t>ソウビヒン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別(0=両方,1=男,2=女)</t>
+  </si>
+  <si>
+    <t>タイプ(0=両方,1=剣士,2=ガンナー)</t>
+  </si>
+  <si>
+    <t>レア度</t>
+  </si>
+  <si>
+    <t>スロット数</t>
+  </si>
+  <si>
+    <t>入手時期／集☆（99=集入手不可）</t>
+  </si>
+  <si>
+    <t>入手時期／村☆（99=村入手不可）</t>
+  </si>
+  <si>
+    <t>初期防御力</t>
+  </si>
+  <si>
+    <t>最終防御力</t>
+  </si>
+  <si>
+    <t>火耐性</t>
+  </si>
+  <si>
+    <t>水耐性</t>
+  </si>
+  <si>
+    <t>雷耐性</t>
+  </si>
+  <si>
+    <t>氷耐性</t>
+  </si>
+  <si>
+    <t>龍耐性</t>
+  </si>
+  <si>
+    <t>スキル系統1</t>
+  </si>
+  <si>
+    <t>スキル値1</t>
+  </si>
+  <si>
+    <t>スキル系統2</t>
+  </si>
+  <si>
+    <t>スキル値2</t>
+  </si>
+  <si>
+    <t>スキル系統3</t>
+  </si>
+  <si>
+    <t>スキル値3</t>
+  </si>
+  <si>
+    <t>スキル系統4</t>
+  </si>
+  <si>
+    <t>スキル値4</t>
+  </si>
+  <si>
+    <t>スキル系統5</t>
+  </si>
+  <si>
+    <t>スキル値5</t>
+  </si>
+  <si>
+    <t>生産素材1</t>
+  </si>
+  <si>
+    <t>個数</t>
+  </si>
+  <si>
+    <t>生産素材2</t>
+  </si>
+  <si>
+    <t>生産素材3</t>
+  </si>
+  <si>
+    <t>生産素材4</t>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rere</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>get_single</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>get_multi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>skill_01</t>
+  </si>
+  <si>
+    <t>skill_point_02</t>
+  </si>
+  <si>
+    <t>skill_point_03</t>
+  </si>
+  <si>
+    <t>skill_point_04</t>
+  </si>
+  <si>
+    <t>skill_point_05</t>
+  </si>
+  <si>
+    <t>skill_point_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>material_02</t>
+  </si>
+  <si>
+    <t>material_03</t>
+  </si>
+  <si>
+    <t>material_04</t>
+  </si>
+  <si>
+    <t>material_count_01</t>
+  </si>
+  <si>
+    <t>material_count_02</t>
+  </si>
+  <si>
+    <t>material_count_03</t>
+  </si>
+  <si>
+    <t>material_count_04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3878,7 +4056,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3952,6 +4130,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3986,6 +4165,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4161,16 +4341,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="12.85" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>0</v>
       </c>
@@ -4183,20 +4363,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="12.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="44.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1328125" customWidth="1"/>
+    <col min="3" max="3" width="44.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
@@ -4204,7 +4384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -4212,7 +4392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
@@ -4220,7 +4400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -4228,7 +4408,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -4236,7 +4416,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4244,7 +4424,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
@@ -4252,7 +4432,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
@@ -4260,7 +4440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
@@ -4268,7 +4448,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
@@ -4276,7 +4456,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
@@ -4292,21 +4472,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="12.85" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>22</v>
       </c>
@@ -4314,7 +4494,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>23</v>
       </c>
@@ -4322,7 +4502,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>24</v>
       </c>
@@ -4330,7 +4510,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -4338,7 +4518,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>89</v>
       </c>
@@ -4346,7 +4526,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>86</v>
       </c>
@@ -4354,7 +4534,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>87</v>
       </c>
@@ -4369,21 +4549,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B44" sqref="B1:D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="12.85" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>22</v>
       </c>
@@ -4391,7 +4571,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>26</v>
       </c>
@@ -4399,7 +4579,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>73</v>
       </c>
@@ -4407,7 +4587,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>31</v>
       </c>
@@ -4415,7 +4595,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>32</v>
       </c>
@@ -4423,7 +4603,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>67</v>
       </c>
@@ -4431,7 +4611,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>66</v>
       </c>
@@ -4439,7 +4619,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>91</v>
       </c>
@@ -4447,7 +4627,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>29</v>
       </c>
@@ -4455,7 +4635,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>90</v>
       </c>
@@ -4463,7 +4643,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>30</v>
       </c>
@@ -4471,7 +4651,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>92</v>
       </c>
@@ -4479,7 +4659,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>28</v>
       </c>
@@ -4487,7 +4667,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>39</v>
       </c>
@@ -4495,7 +4675,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>40</v>
       </c>
@@ -4503,7 +4683,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>75</v>
       </c>
@@ -4511,7 +4691,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>76</v>
       </c>
@@ -4519,7 +4699,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>33</v>
       </c>
@@ -4527,7 +4707,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>34</v>
       </c>
@@ -4535,7 +4715,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>35</v>
       </c>
@@ -4543,7 +4723,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>36</v>
       </c>
@@ -4551,7 +4731,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>37</v>
       </c>
@@ -4559,7 +4739,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>38</v>
       </c>
@@ -4567,7 +4747,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>41</v>
       </c>
@@ -4575,52 +4755,52 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="2:4">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="2:4">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>25</v>
       </c>
@@ -4635,21 +4815,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="12.85" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>26</v>
       </c>
@@ -4657,7 +4837,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>73</v>
       </c>
@@ -4665,7 +4845,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>31</v>
       </c>
@@ -4673,7 +4853,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>67</v>
       </c>
@@ -4681,7 +4861,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -4693,4 +4873,298 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/db_flow.xlsx
+++ b/doc/db_flow.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="147">
   <si>
     <t>・xxx_data のテーブルはゲーム中で可変しない固定データ</t>
     <phoneticPr fontId="1"/>
@@ -682,68 +682,72 @@
     <t>生産素材4</t>
   </si>
   <si>
+    <t>type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rere</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>get_single</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>get_multi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>skill_01</t>
+  </si>
+  <si>
+    <t>skill_point_02</t>
+  </si>
+  <si>
+    <t>skill_point_03</t>
+  </si>
+  <si>
+    <t>skill_point_04</t>
+  </si>
+  <si>
+    <t>skill_point_05</t>
+  </si>
+  <si>
+    <t>skill_point_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>material_02</t>
+  </si>
+  <si>
+    <t>material_03</t>
+  </si>
+  <si>
+    <t>material_04</t>
+  </si>
+  <si>
+    <t>material_count_01</t>
+  </si>
+  <si>
+    <t>material_count_02</t>
+  </si>
+  <si>
+    <t>material_count_03</t>
+  </si>
+  <si>
+    <t>material_count_04</t>
+  </si>
+  <si>
     <t>sex</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>rere</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>slot</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>get_single</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>get_multi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>skill_01</t>
-  </si>
-  <si>
-    <t>skill_point_02</t>
-  </si>
-  <si>
-    <t>skill_point_03</t>
-  </si>
-  <si>
-    <t>skill_point_04</t>
-  </si>
-  <si>
-    <t>skill_point_05</t>
-  </si>
-  <si>
-    <t>skill_point_01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>material_02</t>
-  </si>
-  <si>
-    <t>material_03</t>
-  </si>
-  <si>
-    <t>material_04</t>
-  </si>
-  <si>
-    <t>material_count_01</t>
-  </si>
-  <si>
-    <t>material_count_02</t>
-  </si>
-  <si>
-    <t>material_count_03</t>
-  </si>
-  <si>
-    <t>material_count_04</t>
+    <t>max_def</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -4880,7 +4884,7 @@
   <dimension ref="B1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85" x14ac:dyDescent="0.25"/>
@@ -4908,7 +4912,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
         <v>99</v>
@@ -4916,7 +4920,7 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
         <v>100</v>
@@ -4924,7 +4928,7 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" t="s">
         <v>101</v>
@@ -4932,7 +4936,7 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s">
         <v>102</v>
@@ -4940,7 +4944,7 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
         <v>103</v>
@@ -4948,7 +4952,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D12" t="s">
         <v>104</v>
@@ -4964,7 +4968,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="D14" t="s">
         <v>106</v>
@@ -5012,7 +5016,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D20" t="s">
         <v>112</v>
@@ -5020,7 +5024,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D21" t="s">
         <v>113</v>
@@ -5036,7 +5040,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D23" t="s">
         <v>115</v>
@@ -5052,7 +5056,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D25" t="s">
         <v>117</v>
@@ -5068,7 +5072,7 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D27" t="s">
         <v>119</v>
@@ -5084,7 +5088,7 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D29" t="s">
         <v>121</v>
@@ -5092,7 +5096,7 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D30" t="s">
         <v>122</v>
@@ -5100,7 +5104,7 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s">
         <v>123</v>
@@ -5108,7 +5112,7 @@
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D32" t="s">
         <v>124</v>
@@ -5116,7 +5120,7 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D33" t="s">
         <v>123</v>
@@ -5124,7 +5128,7 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D34" t="s">
         <v>125</v>
@@ -5132,7 +5136,7 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D35" t="s">
         <v>123</v>
@@ -5140,7 +5144,7 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D36" t="s">
         <v>126</v>
@@ -5148,7 +5152,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D37" t="s">
         <v>123</v>

--- a/doc/db_flow.xlsx
+++ b/doc/db_flow.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="362" yWindow="75" windowWidth="25528" windowHeight="14129" activeTab="5"/>
+    <workbookView xWindow="362" yWindow="75" windowWidth="25528" windowHeight="14129"/>
   </bookViews>
   <sheets>
     <sheet name="db概念図" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="chara_data" sheetId="6" r:id="rId5"/>
     <sheet name="head_data" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="164">
   <si>
     <t>・xxx_data のテーブルはゲーム中で可変しない固定データ</t>
     <phoneticPr fontId="1"/>
@@ -747,7 +747,58 @@
   </si>
   <si>
     <t>max_def</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max_def</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>rere</t>
+  </si>
+  <si>
+    <t>slot</t>
+  </si>
+  <si>
+    <t>get_multi</t>
+  </si>
+  <si>
+    <t>get_single</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>def_fire</t>
+  </si>
+  <si>
+    <t>def_water</t>
+  </si>
+  <si>
+    <t>def_thunder</t>
+  </si>
+  <si>
+    <t>def_ice</t>
+  </si>
+  <si>
+    <t>def_dragon</t>
+  </si>
+  <si>
+    <t>skill_point_01</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
@@ -3603,14 +3654,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>313043</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:colOff>341768</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>147922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>237587</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:colOff>266312</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>65621</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3620,7 +3671,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7475045" y="2426741"/>
+          <a:off x="7503770" y="2915059"/>
           <a:ext cx="1226726" cy="406017"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3755,15 +3806,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>340969</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>147124</xdr:rowOff>
+      <xdr:colOff>360119</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>113611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>265513</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>64823</xdr:rowOff>
+      <xdr:colOff>284663</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>31310</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3772,7 +3823,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7502971" y="2914261"/>
+          <a:off x="7522121" y="2392430"/>
           <a:ext cx="1226726" cy="406017"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3896,7 +3947,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
-            <a:t>wear _data</a:t>
+            <a:t>arm _data</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
         </a:p>
@@ -4346,10 +4397,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85" x14ac:dyDescent="0.25"/>
@@ -4368,10 +4420,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85" x14ac:dyDescent="0.25"/>
@@ -4477,6 +4530,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4554,6 +4608,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4820,6 +4875,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4881,284 +4937,389 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D39"/>
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="B1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>95</v>
       </c>
       <c r="D4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>96</v>
       </c>
       <c r="D5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>145</v>
       </c>
       <c r="D7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>127</v>
       </c>
       <c r="D8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>128</v>
       </c>
       <c r="D9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>129</v>
       </c>
       <c r="D10" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>131</v>
       </c>
       <c r="D11" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>130</v>
       </c>
       <c r="D12" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>33</v>
       </c>
       <c r="D13" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D14" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>34</v>
       </c>
       <c r="D15" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>35</v>
       </c>
       <c r="D16" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>36</v>
       </c>
       <c r="D17" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>37</v>
       </c>
       <c r="D18" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>38</v>
       </c>
       <c r="D19" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>132</v>
       </c>
       <c r="D20" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>137</v>
       </c>
       <c r="D21" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>42</v>
       </c>
       <c r="D22" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>133</v>
       </c>
       <c r="D23" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>43</v>
       </c>
       <c r="D24" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>134</v>
       </c>
       <c r="D25" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>44</v>
       </c>
       <c r="D26" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>135</v>
       </c>
       <c r="D27" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>45</v>
       </c>
       <c r="D28" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>136</v>
       </c>
       <c r="D29" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>132</v>
       </c>
       <c r="D30" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>141</v>
       </c>
       <c r="D31" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>138</v>
       </c>
       <c r="D32" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>142</v>
       </c>
       <c r="D33" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>139</v>
       </c>
       <c r="D34" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>143</v>
       </c>
       <c r="D35" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>140</v>
       </c>
       <c r="D36" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>144</v>
       </c>
       <c r="D37" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>25</v>
       </c>
